--- a/user-data/kenya-avg-house-size/kenya-avg-house-size.xlsx
+++ b/user-data/kenya-avg-house-size/kenya-avg-house-size.xlsx
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 36</t>
+    <t xml:space="preserve">Source: 37</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-avg-house-size/kenya-avg-house-size.xlsx
+++ b/user-data/kenya-avg-house-size/kenya-avg-house-size.xlsx
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 37</t>
+    <t xml:space="preserve">Source: 42</t>
   </si>
   <si>
     <t xml:space="preserve"/>
